--- a/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>0.4459800017636823</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6272820524452556</v>
+        <v>0.6272820524452555</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.325027939265106</v>
+        <v>0.3248659491958615</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3792655296026736</v>
+        <v>0.3760491319892214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3801020669389901</v>
+        <v>0.3796382226484189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5854779617803504</v>
+        <v>0.5794913395283164</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3224088490790138</v>
+        <v>0.3188115844417876</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2801166956049286</v>
+        <v>0.2871520080269625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3518332588706876</v>
+        <v>0.344538905105516</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5237119925808144</v>
+        <v>0.5270588272466312</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3487746663530084</v>
+        <v>0.3397651657923343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3568057541797671</v>
+        <v>0.354048237890883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3843927558926398</v>
+        <v>0.3865791133167338</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5786643799004278</v>
+        <v>0.5709219744302535</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.469571989678033</v>
+        <v>0.4778032496526781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5309302145922433</v>
+        <v>0.5319385568424545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5513845370482076</v>
+        <v>0.5453042659029683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7385540935124184</v>
+        <v>0.7340963831897261</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5062302821443215</v>
+        <v>0.4965091375245785</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4739489521605932</v>
+        <v>0.4594726369770898</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5392285273829356</v>
+        <v>0.5357835069317327</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6668682021513669</v>
+        <v>0.6689266164438487</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4608799266287198</v>
+        <v>0.4537919412315055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4769462224844537</v>
+        <v>0.4704668012971897</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5079942773731352</v>
+        <v>0.5172676632654636</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6813616803537973</v>
+        <v>0.6786027720922119</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3238641837803087</v>
+        <v>0.3263891806044211</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3408635655907451</v>
+        <v>0.3392772785972112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4036821579042545</v>
+        <v>0.4071942430634932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5896427825552246</v>
+        <v>0.592711592658774</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2931650785620217</v>
+        <v>0.2843830411650763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3156270647213216</v>
+        <v>0.3105890193224759</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3121539294512437</v>
+        <v>0.3097022093996459</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4836686087950984</v>
+        <v>0.4834923799276965</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3243374590038508</v>
+        <v>0.329364033777577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3513527198192178</v>
+        <v>0.3481528788237801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3770883767194311</v>
+        <v>0.3759178068334529</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5608556288139808</v>
+        <v>0.5680287904173194</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4759500051898194</v>
+        <v>0.484912379085431</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4956657536744666</v>
+        <v>0.4995614936023401</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5732898299139294</v>
+        <v>0.5753620662556965</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7541575764709829</v>
+        <v>0.7592601740473232</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4476643289389369</v>
+        <v>0.4549914412410821</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4859700432828515</v>
+        <v>0.4890495643377287</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.462659839938281</v>
+        <v>0.4649240486140544</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6277694115348181</v>
+        <v>0.6293556802813317</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4408118828528688</v>
+        <v>0.4458662281854198</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4685457989767275</v>
+        <v>0.4643232956607322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4985591328115741</v>
+        <v>0.4932095493059728</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6658543310280971</v>
+        <v>0.6748693308377141</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4025932469567157</v>
+        <v>0.4118408478865579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5991601611794882</v>
+        <v>0.5990827295765926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4942290493864419</v>
+        <v>0.4955900360040597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6807837721793202</v>
+        <v>0.6883398012589319</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4410035800782159</v>
+        <v>0.4495027914115548</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5574272912739513</v>
+        <v>0.5558623670809174</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5899264489745411</v>
+        <v>0.5923340639265456</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7824322500826365</v>
+        <v>0.7902493703273648</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4317887878140769</v>
+        <v>0.4382568085028292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6124207958724321</v>
+        <v>0.6160347832367749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5483743211610473</v>
+        <v>0.5391319409712796</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7378463523280333</v>
+        <v>0.7391096169469996</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5485869053043652</v>
+        <v>0.5542649834546037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.793753303965228</v>
+        <v>0.7759493038425982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6399758293829405</v>
+        <v>0.6388548406267242</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8889185759214645</v>
+        <v>0.8873407003789799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7425008751249865</v>
+        <v>0.7306534562303305</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7941380203710813</v>
+        <v>0.7939627778381161</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9604589804939302</v>
+        <v>0.9566898570742878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.051703975731337</v>
+        <v>1.051772499955541</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5645691002735703</v>
+        <v>0.565113504088353</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7548404249986437</v>
+        <v>0.758913463718945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.686337339329097</v>
+        <v>0.6891882902875682</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8984732811862146</v>
+        <v>0.9052422612278571</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.5776703769323935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.724741418606012</v>
+        <v>0.7247414186060122</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5390481877944193</v>
@@ -1101,7 +1101,7 @@
         <v>0.5198405042685555</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6826156214055243</v>
+        <v>0.6826156214055245</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5130121739621317</v>
+        <v>0.5123252155869384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.549948830765397</v>
+        <v>0.5500040393301802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5268033387724309</v>
+        <v>0.5276685358756819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6661442246664855</v>
+        <v>0.6652706699368028</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4735424544817329</v>
+        <v>0.4728915479869291</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3994572648835594</v>
+        <v>0.3964027692664896</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3817250465359979</v>
+        <v>0.3823648393916708</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5783486205519043</v>
+        <v>0.5756613908708728</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5090353174569453</v>
+        <v>0.5150118610714113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5058080258596269</v>
+        <v>0.5048416875791635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4823342155532128</v>
+        <v>0.4806933551970121</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6414294433369474</v>
+        <v>0.6380509946489216</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6099494168637478</v>
+        <v>0.6114560507254347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6715957987565668</v>
+        <v>0.6735660246402856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6379812584144438</v>
+        <v>0.6360073639822491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7874506361001665</v>
+        <v>0.7940219662963234</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6092969134624805</v>
+        <v>0.6191086430648834</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5221211467036431</v>
+        <v>0.5104413569903887</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5066679308915324</v>
+        <v>0.5041791838366521</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6798612755155223</v>
+        <v>0.6836468441101377</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.593915621143564</v>
+        <v>0.5957964246721036</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5936522051675094</v>
+        <v>0.5944460030259295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5601180095935129</v>
+        <v>0.560072833339443</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.73055916942848</v>
+        <v>0.7309289941538238</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.6009769275713368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6826833423888043</v>
+        <v>0.6826833423888042</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6596138776779675</v>
@@ -1225,7 +1225,7 @@
         <v>0.7472158622703866</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>1.012582225432705</v>
+        <v>1.012582225432704</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.580975622372103</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.371684135004207</v>
+        <v>0.3659883026185551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4713958753501951</v>
+        <v>0.4654624203937028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5226328592095388</v>
+        <v>0.5242317047914095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6111614548615946</v>
+        <v>0.6105949279967691</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5816204361707137</v>
+        <v>0.5786983135888342</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7534575496554484</v>
+        <v>0.7534478014816439</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6757323366800649</v>
+        <v>0.6684775794873246</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9460797037303805</v>
+        <v>0.9418824947393666</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5234981046617246</v>
+        <v>0.5225308894429426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6583492613543227</v>
+        <v>0.6548901364853102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6281359027566201</v>
+        <v>0.6232091091019277</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8253828029567949</v>
+        <v>0.8278409426034946</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5492794425700022</v>
+        <v>0.5432626385313928</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6457044005671791</v>
+        <v>0.6479704793649821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6814824590484649</v>
+        <v>0.6762125765320834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7750345099764292</v>
+        <v>0.7729045115553114</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7521284769081736</v>
+        <v>0.7513450757965053</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9260340689896359</v>
+        <v>0.919375962216269</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8320386037869222</v>
+        <v>0.8306333218229347</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.085205681992859</v>
+        <v>1.085008946283406</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6471796628012282</v>
+        <v>0.647963686315903</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7801141440920776</v>
+        <v>0.7819202814470605</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7343412706746317</v>
+        <v>0.7388213387787324</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9386237716024717</v>
+        <v>0.9364305036263633</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.1790418283094406</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2339120896170476</v>
+        <v>0.2339120896170477</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.8692249594931061</v>
@@ -1361,7 +1361,7 @@
         <v>0.9020042298172892</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9564076415102781</v>
+        <v>0.9564076415102785</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7236409917025004</v>
@@ -1373,7 +1373,7 @@
         <v>0.7503830685061891</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7979290393266645</v>
+        <v>0.7979290393266646</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0770394513629713</v>
+        <v>0.07823519641369923</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1245908089255325</v>
+        <v>0.1226396638340283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1352706345404125</v>
+        <v>0.1312929066844088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1424756532449741</v>
+        <v>0.1517955873903577</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8103454741988441</v>
+        <v>0.8109643069010478</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9348996652020301</v>
+        <v>0.9331332584038965</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8340986384269987</v>
+        <v>0.8314937926826874</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8820903118043688</v>
+        <v>0.8862982191954335</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6724569199245189</v>
+        <v>0.666841284422529</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7853013338917644</v>
+        <v>0.7790943273879654</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6917048564508617</v>
+        <v>0.6907270212817015</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7299947466284261</v>
+        <v>0.730374412579162</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1631118364144613</v>
+        <v>0.1653349479856105</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2565953276616079</v>
+        <v>0.2511782192176196</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2457357772121406</v>
+        <v>0.2415376746525323</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3528431853249074</v>
+        <v>0.3486921039009863</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9393228504474029</v>
+        <v>0.930951491276421</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.077920399325049</v>
+        <v>1.076690070378563</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9785295931228951</v>
+        <v>0.9737666293779808</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.032316375378534</v>
+        <v>1.037432412749827</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7751642305479579</v>
+        <v>0.7787410593322136</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9078701264144547</v>
+        <v>0.9118419711085537</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8119795807588388</v>
+        <v>0.8139178742557679</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8601400649697402</v>
+        <v>0.8623436149317988</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.5211308739170185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6722646565724369</v>
+        <v>0.6722646565724368</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6505128544513494</v>
@@ -1497,7 +1497,7 @@
         <v>0.6529751856781252</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7943132509277387</v>
+        <v>0.7943132509277386</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5526332879345797</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.421093734274668</v>
+        <v>0.4258101331424658</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5025759558975533</v>
+        <v>0.503357405048524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4934533266054827</v>
+        <v>0.4923798369133022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.637595065070085</v>
+        <v>0.6351270507238999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6177806646218565</v>
+        <v>0.616908604702176</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.674210002832581</v>
+        <v>0.6710798032089552</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6191495067956762</v>
+        <v>0.6192450268627407</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7628886074394003</v>
+        <v>0.7645293366139797</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5315538916140206</v>
+        <v>0.5311185504751766</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6012503688528326</v>
+        <v>0.599222140101586</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5641009512689864</v>
+        <v>0.5657559468322649</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7119351512110633</v>
+        <v>0.7137632960965781</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4789172060482604</v>
+        <v>0.4783551365308735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5673031364466522</v>
+        <v>0.5697170461657354</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5513202742943498</v>
+        <v>0.5533613070168586</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7061876077805013</v>
+        <v>0.7056131689555912</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6860071541193957</v>
+        <v>0.6852830387837757</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7458726510297403</v>
+        <v>0.7468200166923354</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6892847357989758</v>
+        <v>0.6908093691621359</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8241558772172891</v>
+        <v>0.8241645789204129</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.576456432950294</v>
+        <v>0.5737589063665349</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6499329328454125</v>
+        <v>0.6470471979016152</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6113436551671857</v>
+        <v>0.6111219624412667</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.759403471229852</v>
+        <v>0.7589804314044715</v>
       </c>
     </row>
     <row r="25">
